--- a/pmi/monthly_table.xlsx
+++ b/pmi/monthly_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Series Index Oct</t>
+          <t>Series Index Sep</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Series Index Sep</t>
+          <t>Series Index Aug</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Percentage Point Change</t>
+          <t>Percent Point Change</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -473,64 +473,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manufacturing PMI®</t>
+          <t>Services PMI®</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New Orders</t>
+          <t>Business Activity/ Production</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-3.7</t>
+          <t>+1.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,29 +540,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>New Orders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>-5.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -589,32 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-1.3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>From Growing</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -626,32 +626,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+1.3</t>
+          <t>+1.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slowing</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slower</t>
+          <t>From Faster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -663,96 +663,96 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>57.7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-3.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Customers' Inventories</t>
+          <t>Prices</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Too Low</t>
+          <t>Increasing</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Slower</t>
+          <t>Same</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Prices</t>
+          <t>Backlog of Orders</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+1.3</t>
+          <t>+6.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Decreasing</t>
+          <t>Contracting</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,34 +762,34 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Backlog of Orders</t>
+          <t>New Export Orders</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>+1.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,34 +799,34 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>New Export Orders</t>
+          <t>Imports</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>47.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+2.0</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,118 +836,131 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Imports</t>
+          <t>Inventory Sentiment</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47.9</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-6.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Too High</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OVERALL ECONOMY</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>OVERALL ECONOMY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OVERALL ECONOMY</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OVERALL ECONOMY</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Contracting</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>From Growing</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Customers' Inventories</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Manufacturing Sector</t>
+          <t>OVERALL ECONOMY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Manufacturing Sector</t>
+          <t>OVERALL ECONOMY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Manufacturing Sector</t>
+          <t>OVERALL ECONOMY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Manufacturing Sector</t>
+          <t>OVERALL ECONOMY</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Contracting</t>
+          <t>Growing</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Faster</t>
+          <t>Slower</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Services Sector</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Services Sector</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Services Sector</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Services Sector</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Growing</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Slower</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
